--- a/REGULAR/OJT/MIRANDA, BIENVENIDO.xlsx
+++ b/REGULAR/OJT/MIRANDA, BIENVENIDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E9D611-E8A2-4409-BD29-B29791CC3E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -627,7 +628,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1521,7 +1522,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1565,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1629,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1689,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1755,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1818,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1916,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1975,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2040,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2083,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2158,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2344,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2410,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2468,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2534,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2590,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2665,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2708,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2774,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2830,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2928,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +2991,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3040,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3056,39 +3057,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K529" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K529"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K529" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K529" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3097,14 +3098,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3408,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3418,7 +3419,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3426,34 +3427,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A478"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A427" sqref="A427:XFD427"/>
+      <pane ySplit="4056" topLeftCell="A472"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="F481" sqref="F481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3474,7 +3475,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +3495,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3516,7 +3517,7 @@
       <c r="J4" s="65"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3524,7 +3525,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3537,7 +3538,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3554,7 +3555,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3613,7 +3614,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>43</v>
       </c>
@@ -3635,7 +3636,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -3655,7 +3656,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35004</v>
       </c>
@@ -3675,7 +3676,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35034</v>
       </c>
@@ -3695,7 +3696,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>45</v>
       </c>
@@ -3713,7 +3714,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35065</v>
       </c>
@@ -3733,7 +3734,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35096</v>
@@ -3754,7 +3755,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A27" si="0">EDATE(A16,1)</f>
         <v>35125</v>
@@ -3775,7 +3776,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -3796,7 +3797,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -3817,7 +3818,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -3838,7 +3839,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -3859,7 +3860,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -3880,7 +3881,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="50" t="s">
         <v>46</v>
@@ -3898,7 +3899,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35309</v>
@@ -3919,7 +3920,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -3940,7 +3941,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f>EDATE(A25,1)</f>
         <v>35370</v>
@@ -3961,7 +3962,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -3986,7 +3987,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>48</v>
       </c>
@@ -4004,7 +4005,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35431</v>
       </c>
@@ -4024,7 +4025,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35462</v>
@@ -4045,7 +4046,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" ref="A31:A43" si="1">EDATE(A30,1)</f>
         <v>35490</v>
@@ -4066,7 +4067,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35521</v>
@@ -4087,7 +4088,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35551</v>
@@ -4112,7 +4113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4130,7 +4131,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>35582</v>
@@ -4155,7 +4156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -4173,7 +4174,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35612</v>
@@ -4194,7 +4195,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -4215,7 +4216,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -4236,7 +4237,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -4261,7 +4262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4279,7 +4280,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35735</v>
@@ -4300,7 +4301,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -4321,7 +4322,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>54</v>
       </c>
@@ -4339,7 +4340,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>35796</v>
       </c>
@@ -4359,7 +4360,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>35827</v>
@@ -4380,7 +4381,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" ref="A47" si="2">EDATE(A46,1)</f>
         <v>35855</v>
@@ -4405,7 +4406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="11" t="s">
         <v>51</v>
@@ -4427,7 +4428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="52" t="s">
         <v>58</v>
       </c>
@@ -4447,7 +4448,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="52" t="s">
         <v>60</v>
       </c>
@@ -4467,7 +4468,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="54">
         <v>35977</v>
       </c>
@@ -4487,7 +4488,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>36008</v>
@@ -4508,7 +4509,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A55" si="3">EDATE(A52,1)</f>
         <v>36039</v>
@@ -4529,7 +4530,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -4550,7 +4551,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -4571,7 +4572,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>36130</v>
@@ -4596,7 +4597,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
         <v>62</v>
       </c>
@@ -4614,7 +4615,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -4634,7 +4635,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>36192</v>
@@ -4655,7 +4656,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A68" si="4">EDATE(A59,1)</f>
         <v>36220</v>
@@ -4680,7 +4681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4698,7 +4699,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>36251</v>
@@ -4723,7 +4724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4741,7 +4742,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36281</v>
@@ -4766,7 +4767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4784,7 +4785,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36312</v>
@@ -4805,7 +4806,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -4826,7 +4827,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -4851,7 +4852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4869,7 +4870,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36404</v>
@@ -4894,7 +4895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4912,7 +4913,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36434</v>
@@ -4935,7 +4936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>55</v>
@@ -4957,7 +4958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4975,7 +4976,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A72,1)</f>
         <v>36465</v>
@@ -5000,7 +5001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -5018,7 +5019,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36495</v>
@@ -5039,7 +5040,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="49" t="s">
         <v>73</v>
       </c>
@@ -5057,7 +5058,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5077,7 +5078,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>36557</v>
@@ -5102,7 +5103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>75</v>
@@ -5124,7 +5125,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>76</v>
@@ -5144,7 +5145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5162,7 +5163,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A80,1)</f>
         <v>36586</v>
@@ -5187,7 +5188,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5205,7 +5206,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>36617</v>
@@ -5230,7 +5231,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5248,7 +5249,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36647</v>
@@ -5269,7 +5270,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A96" si="5">EDATE(A88,1)</f>
         <v>36678</v>
@@ -5290,7 +5291,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5311,7 +5312,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5332,7 +5333,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -5357,7 +5358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>78</v>
@@ -5377,7 +5378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5395,7 +5396,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>36800</v>
@@ -5416,7 +5417,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -5437,7 +5438,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>36861</v>
@@ -5462,7 +5463,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="49" t="s">
         <v>81</v>
       </c>
@@ -5480,7 +5481,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>36892</v>
       </c>
@@ -5500,7 +5501,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A99,1)</f>
         <v>36923</v>
@@ -5523,7 +5524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5541,7 +5542,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36951</v>
@@ -5562,7 +5563,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" ref="A103:A108" si="6">EDATE(A102,1)</f>
         <v>36982</v>
@@ -5583,7 +5584,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -5604,7 +5605,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -5625,7 +5626,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -5646,7 +5647,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -5667,7 +5668,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -5692,7 +5693,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -5714,7 +5715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>76</v>
@@ -5734,7 +5735,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5752,7 +5753,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A108,1)</f>
         <v>37165</v>
@@ -5777,7 +5778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5795,7 +5796,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37196</v>
@@ -5820,7 +5821,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>76</v>
@@ -5840,7 +5841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5858,7 +5859,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -5879,7 +5880,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="49" t="s">
         <v>87</v>
       </c>
@@ -5897,7 +5898,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5939,7 +5940,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -5960,7 +5961,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" ref="A122:A132" si="7">EDATE(A121,1)</f>
         <v>37316</v>
@@ -5981,7 +5982,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6002,7 +6003,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6027,7 +6028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6045,7 +6046,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37408</v>
@@ -6066,7 +6067,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6087,7 +6088,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6108,7 +6109,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6129,7 +6130,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6150,7 +6151,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6171,7 +6172,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6198,7 +6199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>69</v>
@@ -6218,7 +6219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="49" t="s">
         <v>92</v>
       </c>
@@ -6236,7 +6237,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>37622</v>
       </c>
@@ -6256,7 +6257,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A135,1)</f>
         <v>37653</v>
@@ -6281,7 +6282,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6299,7 +6300,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>37681</v>
@@ -6320,7 +6321,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A148" si="8">EDATE(A138,1)</f>
         <v>37712</v>
@@ -6341,7 +6342,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6368,7 +6369,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -6390,7 +6391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37773</v>
@@ -6411,7 +6412,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -6432,7 +6433,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>37834</v>
@@ -6453,7 +6454,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>37865</v>
@@ -6480,7 +6481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A145,1)</f>
         <v>37895</v>
@@ -6507,7 +6508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>37926</v>
@@ -6528,7 +6529,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>37956</v>
@@ -6553,7 +6554,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="49" t="s">
         <v>99</v>
       </c>
@@ -6571,7 +6572,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>37987</v>
       </c>
@@ -6591,7 +6592,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>38018</v>
@@ -6612,7 +6613,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" ref="A152:A161" si="9">EDATE(A151,1)</f>
         <v>38047</v>
@@ -6633,7 +6634,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>38078</v>
@@ -6654,7 +6655,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -6675,7 +6676,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="9"/>
         <v>38139</v>
@@ -6696,7 +6697,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="9"/>
         <v>38169</v>
@@ -6723,7 +6724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>38200</v>
@@ -6744,7 +6745,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="9"/>
         <v>38231</v>
@@ -6765,7 +6766,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="9"/>
         <v>38261</v>
@@ -6786,7 +6787,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="9"/>
         <v>38292</v>
@@ -6807,7 +6808,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>38322</v>
@@ -6832,7 +6833,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="49" t="s">
         <v>102</v>
       </c>
@@ -6850,7 +6851,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38353</v>
       </c>
@@ -6870,7 +6871,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A163,1)</f>
         <v>38384</v>
@@ -6891,7 +6892,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" ref="A165:A174" si="10">EDATE(A164,1)</f>
         <v>38412</v>
@@ -6912,7 +6913,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>38443</v>
@@ -6933,7 +6934,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -6954,7 +6955,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -6975,7 +6976,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -6996,7 +6997,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -7017,7 +7018,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -7038,7 +7039,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>38626</v>
@@ -7059,7 +7060,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="10"/>
         <v>38657</v>
@@ -7080,7 +7081,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -7105,7 +7106,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="49" t="s">
         <v>103</v>
       </c>
@@ -7123,7 +7124,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38718</v>
       </c>
@@ -7143,7 +7144,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41">
         <f>EDATE(A176,1)</f>
         <v>38749</v>
@@ -7164,7 +7165,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="15"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41">
         <f t="shared" ref="A178:A187" si="11">EDATE(A177,1)</f>
         <v>38777</v>
@@ -7185,7 +7186,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41">
         <f t="shared" si="11"/>
         <v>38808</v>
@@ -7206,7 +7207,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41">
         <f t="shared" si="11"/>
         <v>38838</v>
@@ -7227,7 +7228,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7248,7 +7249,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7269,7 +7270,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41">
         <f t="shared" si="11"/>
         <v>38930</v>
@@ -7290,7 +7291,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -7311,7 +7312,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -7332,7 +7333,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -7353,7 +7354,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41">
         <f t="shared" si="11"/>
         <v>39052</v>
@@ -7378,7 +7379,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20" t="s">
         <v>105</v>
@@ -7400,7 +7401,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="57" t="s">
         <v>106</v>
       </c>
@@ -7418,7 +7419,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39083</v>
       </c>
@@ -7438,7 +7439,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39114</v>
@@ -7459,7 +7460,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A207" si="12">EDATE(A191,1)</f>
         <v>39142</v>
@@ -7482,7 +7483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7500,7 +7501,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f>EDATE(A192,1)</f>
         <v>39173</v>
@@ -7521,7 +7522,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="12"/>
         <v>39203</v>
@@ -7542,7 +7543,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -7567,7 +7568,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7585,7 +7586,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39264</v>
@@ -7610,7 +7611,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>76</v>
@@ -7630,7 +7631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7648,7 +7649,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39295</v>
@@ -7675,7 +7676,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>109</v>
@@ -7697,7 +7698,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>75</v>
@@ -7719,7 +7720,7 @@
         <v>46966</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A201,1)</f>
         <v>39326</v>
@@ -7740,7 +7741,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A204,1)</f>
         <v>39356</v>
@@ -7765,7 +7766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>39387</v>
@@ -7786,7 +7787,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>39417</v>
@@ -7807,7 +7808,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="49" t="s">
         <v>112</v>
       </c>
@@ -7825,7 +7826,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39448</v>
       </c>
@@ -7845,7 +7846,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A209,1)</f>
         <v>39479</v>
@@ -7866,7 +7867,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" ref="A211:A218" si="13">EDATE(A210,1)</f>
         <v>39508</v>
@@ -7887,7 +7888,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="13"/>
         <v>39539</v>
@@ -7908,7 +7909,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>39569</v>
@@ -7929,7 +7930,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>39600</v>
@@ -7952,7 +7953,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -7970,7 +7971,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f>EDATE(A214,1)</f>
         <v>39630</v>
@@ -7991,7 +7992,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -8012,7 +8013,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="13"/>
         <v>39692</v>
@@ -8037,7 +8038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8055,7 +8056,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39722</v>
@@ -8080,7 +8081,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -8098,7 +8099,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -8121,7 +8122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8139,7 +8140,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39783</v>
@@ -8160,7 +8161,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="49" t="s">
         <v>117</v>
       </c>
@@ -8178,7 +8179,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39814</v>
       </c>
@@ -8198,7 +8199,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A226,1)</f>
         <v>39845</v>
@@ -8221,7 +8222,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -8239,7 +8240,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39873</v>
@@ -8262,7 +8263,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -8280,7 +8281,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f>EDATE(A229,1)</f>
         <v>39904</v>
@@ -8301,7 +8302,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" ref="A232:A239" si="14">EDATE(A231,1)</f>
         <v>39934</v>
@@ -8322,7 +8323,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="14"/>
         <v>39965</v>
@@ -8345,7 +8346,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8363,7 +8364,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39995</v>
@@ -8384,7 +8385,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="14"/>
         <v>40026</v>
@@ -8405,7 +8406,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -8426,7 +8427,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="14"/>
         <v>40087</v>
@@ -8447,7 +8448,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -8468,7 +8469,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A239,1)</f>
         <v>40148</v>
@@ -8493,7 +8494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8511,7 +8512,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="49" t="s">
         <v>122</v>
       </c>
@@ -8529,7 +8530,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40179</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8571,7 +8572,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40210</v>
@@ -8596,7 +8597,7 @@
         <v>47119</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -8616,7 +8617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>75</v>
@@ -8638,7 +8639,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>76</v>
@@ -8658,7 +8659,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8676,7 +8677,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A245,1)</f>
         <v>40238</v>
@@ -8697,7 +8698,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" ref="A251:A256" si="15">EDATE(A250,1)</f>
         <v>40269</v>
@@ -8718,7 +8719,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="15"/>
         <v>40299</v>
@@ -8739,7 +8740,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -8760,7 +8761,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -8781,7 +8782,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="15"/>
         <v>40391</v>
@@ -8802,7 +8803,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="15"/>
         <v>40422</v>
@@ -8827,7 +8828,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>75</v>
@@ -8849,7 +8850,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>75</v>
@@ -8871,7 +8872,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -8889,7 +8890,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>40452</v>
@@ -8914,7 +8915,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13">
@@ -8932,7 +8933,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>40483</v>
@@ -8955,7 +8956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8973,7 +8974,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40513</v>
@@ -8994,7 +8995,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="49" t="s">
         <v>130</v>
       </c>
@@ -9012,7 +9013,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40544</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9052,7 +9053,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40575</v>
@@ -9073,7 +9074,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" ref="A269:A281" si="16">EDATE(A268,1)</f>
         <v>40603</v>
@@ -9094,7 +9095,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="16"/>
         <v>40634</v>
@@ -9115,7 +9116,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="16"/>
         <v>40664</v>
@@ -9140,7 +9141,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40695</v>
@@ -9163,7 +9164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>133</v>
@@ -9185,7 +9186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>80</v>
@@ -9207,7 +9208,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
@@ -9225,7 +9226,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A272,1)</f>
         <v>40725</v>
@@ -9246,7 +9247,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -9269,7 +9270,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>47</v>
@@ -9291,7 +9292,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9309,7 +9310,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A277,1)</f>
         <v>40787</v>
@@ -9330,7 +9331,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>40817</v>
@@ -9355,7 +9356,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>138</v>
@@ -9377,7 +9378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9395,7 +9396,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>40848</v>
@@ -9420,7 +9421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9438,7 +9439,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40878</v>
@@ -9463,7 +9464,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>55</v>
@@ -9485,7 +9486,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>138</v>
@@ -9507,7 +9508,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -9525,7 +9526,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="49" t="s">
         <v>143</v>
       </c>
@@ -9543,7 +9544,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40909</v>
       </c>
@@ -9563,7 +9564,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A291,1)</f>
         <v>40940</v>
@@ -9586,7 +9587,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>55</v>
@@ -9608,7 +9609,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>105</v>
@@ -9632,7 +9633,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A292,1)</f>
         <v>40969</v>
@@ -9653,7 +9654,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" ref="A296:A314" si="17">EDATE(A295,1)</f>
         <v>41000</v>
@@ -9676,7 +9677,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13">
@@ -9694,7 +9695,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41030</v>
@@ -9719,7 +9720,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9737,7 +9738,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41061</v>
@@ -9762,7 +9763,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>51</v>
@@ -9782,7 +9783,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13">
@@ -9800,7 +9801,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>41091</v>
@@ -9821,7 +9822,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -9842,7 +9843,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>41153</v>
@@ -9867,7 +9868,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>80</v>
@@ -9889,7 +9890,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>75</v>
@@ -9911,7 +9912,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>75</v>
@@ -9933,7 +9934,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -9951,7 +9952,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A305,1)</f>
         <v>41183</v>
@@ -9976,7 +9977,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>75</v>
@@ -9998,7 +9999,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -10016,7 +10017,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>41214</v>
@@ -10037,7 +10038,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="17"/>
         <v>41244</v>
@@ -10062,7 +10063,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10084,7 +10085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13">
@@ -10102,7 +10103,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="49" t="s">
         <v>150</v>
       </c>
@@ -10120,7 +10121,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>41275</v>
       </c>
@@ -10142,7 +10143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>80</v>
@@ -10164,7 +10165,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>76</v>
@@ -10184,7 +10185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -10202,7 +10203,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A318,1)</f>
         <v>41306</v>
@@ -10227,7 +10228,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>75</v>
@@ -10249,7 +10250,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>138</v>
@@ -10271,7 +10272,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -10289,7 +10290,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f>EDATE(A322,1)</f>
         <v>41334</v>
@@ -10314,7 +10315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13">
@@ -10332,7 +10333,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>41365</v>
@@ -10353,7 +10354,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" ref="A329:A338" si="18">EDATE(A328,1)</f>
         <v>41395</v>
@@ -10374,7 +10375,7 @@
       <c r="J329" s="12"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="18"/>
         <v>41426</v>
@@ -10399,7 +10400,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10417,7 +10418,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41456</v>
@@ -10438,7 +10439,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="18"/>
         <v>41487</v>
@@ -10459,7 +10460,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="18"/>
         <v>41518</v>
@@ -10480,7 +10481,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="18"/>
         <v>41548</v>
@@ -10505,7 +10506,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -10523,7 +10524,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>41579</v>
@@ -10544,7 +10545,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -10565,7 +10566,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="49" t="s">
         <v>157</v>
       </c>
@@ -10583,7 +10584,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41640</v>
       </c>
@@ -10603,7 +10604,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>41671</v>
@@ -10624,7 +10625,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A351" si="19">EDATE(A341,1)</f>
         <v>41699</v>
@@ -10645,7 +10646,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="19"/>
         <v>41730</v>
@@ -10666,7 +10667,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -10687,7 +10688,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="19"/>
         <v>41791</v>
@@ -10708,7 +10709,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -10729,7 +10730,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -10750,7 +10751,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="19"/>
         <v>41883</v>
@@ -10771,7 +10772,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -10798,7 +10799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -10819,7 +10820,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" si="19"/>
         <v>41974</v>
@@ -10840,7 +10841,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="49" t="s">
         <v>156</v>
       </c>
@@ -10858,7 +10859,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>42005</v>
       </c>
@@ -10878,7 +10879,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A353,1)</f>
         <v>42036</v>
@@ -10899,7 +10900,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A364" si="20">EDATE(A354,1)</f>
         <v>42064</v>
@@ -10920,7 +10921,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="20"/>
         <v>42095</v>
@@ -10941,7 +10942,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="20"/>
         <v>42125</v>
@@ -10962,7 +10963,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f t="shared" si="20"/>
         <v>42156</v>
@@ -10983,7 +10984,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -11004,7 +11005,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -11025,7 +11026,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -11046,7 +11047,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -11073,7 +11074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A362,1)</f>
         <v>42309</v>
@@ -11094,7 +11095,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="20"/>
         <v>42339</v>
@@ -11119,7 +11120,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="49" t="s">
         <v>159</v>
       </c>
@@ -11137,7 +11138,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>42370</v>
       </c>
@@ -11157,7 +11158,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A366,1)</f>
         <v>42401</v>
@@ -11178,7 +11179,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" ref="A368:A378" si="21">EDATE(A367,1)</f>
         <v>42430</v>
@@ -11201,7 +11202,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13">
@@ -11219,7 +11220,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42461</v>
@@ -11240,7 +11241,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -11261,7 +11262,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -11282,7 +11283,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -11303,7 +11304,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -11324,7 +11325,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -11345,7 +11346,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -11366,7 +11367,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" si="21"/>
         <v>42675</v>
@@ -11387,7 +11388,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -11412,7 +11413,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>66</v>
@@ -11434,7 +11435,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -11452,7 +11453,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="49" t="s">
         <v>164</v>
       </c>
@@ -11470,7 +11471,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>42736</v>
       </c>
@@ -11490,7 +11491,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A382,1)</f>
         <v>42767</v>
@@ -11511,7 +11512,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" ref="A384:A393" si="22">EDATE(A383,1)</f>
         <v>42795</v>
@@ -11532,7 +11533,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="22"/>
         <v>42826</v>
@@ -11553,7 +11554,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -11574,7 +11575,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="22"/>
         <v>42887</v>
@@ -11595,7 +11596,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -11616,7 +11617,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="22"/>
         <v>42948</v>
@@ -11637,7 +11638,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -11658,7 +11659,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -11679,7 +11680,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -11700,7 +11701,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -11725,7 +11726,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>69</v>
@@ -11745,7 +11746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13">
@@ -11763,7 +11764,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="49" t="s">
         <v>167</v>
       </c>
@@ -11781,7 +11782,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>43101</v>
       </c>
@@ -11801,7 +11802,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>43132</v>
@@ -11822,7 +11823,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A411" si="23">EDATE(A398,1)</f>
         <v>43160</v>
@@ -11847,7 +11848,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>76</v>
@@ -11867,7 +11868,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13">
@@ -11885,7 +11886,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>43191</v>
@@ -11906,7 +11907,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -11927,7 +11928,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -11948,7 +11949,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -11969,7 +11970,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="23"/>
         <v>43313</v>
@@ -11990,7 +11991,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="23"/>
         <v>43344</v>
@@ -12011,7 +12012,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -12036,7 +12037,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -12054,7 +12055,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>43405</v>
@@ -12075,7 +12076,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f t="shared" si="23"/>
         <v>43435</v>
@@ -12096,7 +12097,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="49" t="s">
         <v>170</v>
       </c>
@@ -12114,7 +12115,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -12134,7 +12135,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A413,1)</f>
         <v>43497</v>
@@ -12155,7 +12156,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" ref="A415:A424" si="24">EDATE(A414,1)</f>
         <v>43525</v>
@@ -12176,7 +12177,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="24"/>
         <v>43556</v>
@@ -12197,7 +12198,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="24"/>
         <v>43586</v>
@@ -12218,7 +12219,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -12239,7 +12240,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -12260,7 +12261,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -12281,7 +12282,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -12302,7 +12303,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -12323,7 +12324,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f>EDATE(A422,1)</f>
         <v>43770</v>
@@ -12344,7 +12345,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f t="shared" si="24"/>
         <v>43800</v>
@@ -12369,7 +12370,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="49" t="s">
         <v>171</v>
       </c>
@@ -12387,7 +12388,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43831</v>
       </c>
@@ -12411,7 +12412,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f>EDATE(A426,1)</f>
         <v>43862</v>
@@ -12432,7 +12433,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f t="shared" ref="A428:A436" si="25">EDATE(A427,1)</f>
         <v>43891</v>
@@ -12453,7 +12454,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="25"/>
         <v>43922</v>
@@ -12474,7 +12475,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -12495,7 +12496,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -12516,7 +12517,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -12537,7 +12538,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="25"/>
         <v>44044</v>
@@ -12558,7 +12559,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -12579,7 +12580,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="25"/>
         <v>44105</v>
@@ -12600,7 +12601,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="25"/>
         <v>44136</v>
@@ -12621,7 +12622,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f>EDATE(A436,1)</f>
         <v>44166</v>
@@ -12646,7 +12647,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="49" t="s">
         <v>174</v>
       </c>
@@ -12664,7 +12665,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>44197</v>
       </c>
@@ -12684,7 +12685,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A439,1)</f>
         <v>44228</v>
@@ -12705,7 +12706,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f t="shared" ref="A441:A450" si="26">EDATE(A440,1)</f>
         <v>44256</v>
@@ -12726,7 +12727,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="26"/>
         <v>44287</v>
@@ -12747,7 +12748,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="26"/>
         <v>44317</v>
@@ -12768,7 +12769,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="26"/>
         <v>44348</v>
@@ -12789,7 +12790,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="26"/>
         <v>44378</v>
@@ -12810,7 +12811,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="26"/>
         <v>44409</v>
@@ -12831,7 +12832,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="26"/>
         <v>44440</v>
@@ -12852,7 +12853,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f t="shared" si="26"/>
         <v>44470</v>
@@ -12873,7 +12874,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="26"/>
         <v>44501</v>
@@ -12894,7 +12895,7 @@
       <c r="J449" s="12"/>
       <c r="K449" s="15"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="26"/>
         <v>44531</v>
@@ -12919,7 +12920,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="49" t="s">
         <v>175</v>
       </c>
@@ -12937,7 +12938,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44562</v>
       </c>
@@ -12957,7 +12958,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>44593</v>
@@ -12978,7 +12979,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A453,1)</f>
         <v>44621</v>
@@ -13005,7 +13006,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>44652</v>
       </c>
@@ -13025,7 +13026,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>44682</v>
       </c>
@@ -13045,7 +13046,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>44713</v>
       </c>
@@ -13065,7 +13066,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44743</v>
       </c>
@@ -13085,7 +13086,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44774</v>
       </c>
@@ -13105,7 +13106,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44805</v>
       </c>
@@ -13125,7 +13126,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44835</v>
       </c>
@@ -13145,7 +13146,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44866</v>
       </c>
@@ -13165,7 +13166,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>44896</v>
       </c>
@@ -13185,7 +13186,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="49" t="s">
         <v>177</v>
       </c>
@@ -13203,7 +13204,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>44957</v>
       </c>
@@ -13223,7 +13224,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44985</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>45016</v>
       </c>
@@ -13269,7 +13270,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>45046</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>45077</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>45107</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>45138</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>192</v>
@@ -13395,7 +13396,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>45168</v>
       </c>
@@ -13415,7 +13416,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>45199</v>
       </c>
@@ -13435,7 +13436,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>45229</v>
       </c>
@@ -13455,7 +13456,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>45260</v>
       </c>
@@ -13475,7 +13476,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>45290</v>
       </c>
@@ -13495,7 +13496,7 @@
       <c r="J477" s="12"/>
       <c r="K477" s="15"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="49" t="s">
         <v>194</v>
       </c>
@@ -13513,7 +13514,7 @@
       <c r="J478" s="12"/>
       <c r="K478" s="15"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>45321</v>
       </c>
@@ -13533,7 +13534,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>45351</v>
       </c>
@@ -13553,7 +13554,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>45381</v>
       </c>
@@ -13573,7 +13574,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>45412</v>
       </c>
@@ -13591,7 +13592,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>45442</v>
       </c>
@@ -13609,7 +13610,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>45473</v>
       </c>
@@ -13627,7 +13628,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>45503</v>
       </c>
@@ -13645,7 +13646,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>45534</v>
       </c>
@@ -13663,7 +13664,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>45565</v>
       </c>
@@ -13681,7 +13682,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>45595</v>
       </c>
@@ -13699,7 +13700,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>45626</v>
       </c>
@@ -13717,7 +13718,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>45656</v>
       </c>
@@ -13735,7 +13736,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>45687</v>
       </c>
@@ -13753,7 +13754,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>45716</v>
       </c>
@@ -13771,7 +13772,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>45746</v>
       </c>
@@ -13789,7 +13790,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>45777</v>
       </c>
@@ -13807,7 +13808,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>45807</v>
       </c>
@@ -13825,7 +13826,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>45838</v>
       </c>
@@ -13843,7 +13844,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>45868</v>
       </c>
@@ -13861,7 +13862,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>45899</v>
       </c>
@@ -13879,7 +13880,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>45930</v>
       </c>
@@ -13897,7 +13898,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>45960</v>
       </c>
@@ -13915,7 +13916,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>45962</v>
       </c>
@@ -13933,7 +13934,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>45992</v>
       </c>
@@ -13951,7 +13952,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>46023</v>
       </c>
@@ -13969,7 +13970,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>46054</v>
       </c>
@@ -13987,7 +13988,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>46082</v>
       </c>
@@ -14005,7 +14006,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>46113</v>
       </c>
@@ -14023,7 +14024,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>46143</v>
       </c>
@@ -14041,7 +14042,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>46174</v>
       </c>
@@ -14059,7 +14060,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>46204</v>
       </c>
@@ -14077,7 +14078,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>46235</v>
       </c>
@@ -14095,7 +14096,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>46266</v>
       </c>
@@ -14113,7 +14114,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>46296</v>
       </c>
@@ -14131,7 +14132,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>46327</v>
       </c>
@@ -14149,7 +14150,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>46357</v>
       </c>
@@ -14167,7 +14168,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>46388</v>
       </c>
@@ -14185,7 +14186,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>46419</v>
       </c>
@@ -14203,7 +14204,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>46447</v>
       </c>
@@ -14221,7 +14222,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>46478</v>
       </c>
@@ -14239,7 +14240,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>46508</v>
       </c>
@@ -14257,7 +14258,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>46539</v>
       </c>
@@ -14275,7 +14276,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>46569</v>
       </c>
@@ -14293,7 +14294,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>46600</v>
       </c>
@@ -14311,7 +14312,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>46631</v>
       </c>
@@ -14329,7 +14330,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>46661</v>
       </c>
@@ -14347,7 +14348,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>46692</v>
       </c>
@@ -14365,7 +14366,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>46722</v>
       </c>
@@ -14383,7 +14384,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>46753</v>
       </c>
@@ -14401,7 +14402,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>46784</v>
       </c>
@@ -14419,7 +14420,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>46813</v>
       </c>
@@ -14452,10 +14453,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14478,7 +14479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14486,21 +14487,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
@@ -14513,7 +14514,7 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14542,7 +14543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14568,17 +14569,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -14602,7 +14603,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
         <v>562.75</v>
@@ -14633,7 +14634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14737,7 +14738,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14763,7 +14764,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14789,7 +14790,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14835,7 +14836,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14855,7 +14856,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14875,7 +14876,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14896,7 +14897,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14917,7 +14918,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14980,7 +14981,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15001,7 +15002,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15022,7 +15023,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15064,7 +15065,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15085,7 +15086,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15106,7 +15107,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15127,7 +15128,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15148,7 +15149,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15169,7 +15170,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15190,7 +15191,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15253,7 +15254,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15295,7 +15296,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15304,7 +15305,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15313,7 +15314,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15322,7 +15323,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15331,7 +15332,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15340,7 +15341,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15349,7 +15350,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15358,7 +15359,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15367,7 +15368,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15376,7 +15377,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15385,7 +15386,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15394,7 +15395,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15403,7 +15404,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15412,7 +15413,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15421,7 +15422,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15430,7 +15431,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15439,7 +15440,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15448,7 +15449,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15457,7 +15458,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15466,7 +15467,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15475,7 +15476,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15484,7 +15485,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15493,7 +15494,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15502,7 +15503,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15511,7 +15512,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15520,7 +15521,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15529,7 +15530,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15538,7 +15539,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15547,7 +15548,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15556,7 +15557,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
